--- a/07_calc_country_stats/05_abv_grd_c_stats/02_combine_tile_stats/country_abv_grd_c_stats.xlsx
+++ b/07_calc_country_stats/05_abv_grd_c_stats/02_combine_tile_stats/country_abv_grd_c_stats.xlsx
@@ -1690,7 +1690,7 @@
         <v>158</v>
       </c>
       <c r="D34">
-        <v>39362319.00846007</v>
+        <v>39362319.00846008</v>
       </c>
       <c r="E34">
         <v>75.368373216112</v>
@@ -1928,7 +1928,7 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>21814673.84424682</v>
+        <v>21814673.84424683</v>
       </c>
       <c r="E48">
         <v>76.69868938961311</v>
@@ -1979,7 +1979,7 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>1926044.401942926</v>
+        <v>1926044.401942925</v>
       </c>
       <c r="E51">
         <v>52.26982859023512</v>
@@ -2098,7 +2098,7 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>51408067.21835453</v>
+        <v>51408067.21835454</v>
       </c>
       <c r="E58">
         <v>51.08670377222053</v>
@@ -2574,7 +2574,7 @@
         <v>210</v>
       </c>
       <c r="D86">
-        <v>948074.769371287</v>
+        <v>948074.7693712868</v>
       </c>
       <c r="E86">
         <v>38.073008156889</v>
